--- a/Documentação/Planilhas/Layouts/Colecao_Elegiveis.xlsx
+++ b/Documentação/Planilhas/Layouts/Colecao_Elegiveis.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
-    <sheet name="stg_colecao_cds_elegiveis" sheetId="113" r:id="rId1"/>
-    <sheet name="stg_colecao_demais_cds_sp" sheetId="115" r:id="rId2"/>
-    <sheet name="stg_colecao_demais_cds_rj" sheetId="116" r:id="rId3"/>
-    <sheet name="stg_colecao_elegiveis" sheetId="117" r:id="rId4"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId5"/>
-    <sheet name="ods_colecao_elegivel_log_peg" sheetId="118" r:id="rId6"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId1"/>
+    <sheet name="ods_colecao_elegivel_log_peg" sheetId="118" r:id="rId2"/>
+    <sheet name="ods_colecao_elegivel_retira_loj" sheetId="119" r:id="rId3"/>
+    <sheet name="stg_colecao_cds_elegiveis" sheetId="113" r:id="rId4"/>
+    <sheet name="stg_colecao_demais_cds_rj" sheetId="116" r:id="rId5"/>
+    <sheet name="stg_colecao_demais_cds_sp" sheetId="115" r:id="rId6"/>
+    <sheet name="stg_colecao_elegiveis" sheetId="117" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="100">
   <si>
     <t>Campo</t>
   </si>
@@ -274,6 +275,51 @@
   </si>
   <si>
     <t>multi.vw_classifica_elegiveis</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\ods_colecao_elegiveis.dtsx</t>
+  </si>
+  <si>
+    <t>Identifica o Item através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Item SKU através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Item através da sua descrição</t>
+  </si>
+  <si>
+    <t>Valor do Preço</t>
+  </si>
+  <si>
+    <t>Identifica o tamanho total do item</t>
+  </si>
+  <si>
+    <t>Identifica o Elegível GG</t>
+  </si>
+  <si>
+    <t>Identifica o Elegível G</t>
+  </si>
+  <si>
+    <t>Identifica o Elegível M</t>
+  </si>
+  <si>
+    <t>Identifica o Elegível P</t>
+  </si>
+  <si>
+    <t>Identifica o Elegível PP</t>
+  </si>
+  <si>
+    <t>Identifica o Elegível Gaveta</t>
+  </si>
+  <si>
+    <t>[multi].[ods_colecao_elegivel_retira_em_loja]</t>
+  </si>
+  <si>
+    <t>elegivel_retiraloja</t>
+  </si>
+  <si>
+    <t>Identifica o Elegível Retira em Loja</t>
   </si>
 </sst>
 </file>
@@ -807,6 +853,51 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1137,13 +1228,800 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="19" t="str">
+        <f>ods_colecao_elegivel_log_peg!B9</f>
+        <v>[multi].[ods_colecao_elegivel_log_peg]</v>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f>ods_colecao_elegivel_log_peg!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f>ods_colecao_elegivel_log_peg!B10</f>
+        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\ods_colecao_elegiveis.dtsx</v>
+      </c>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="19" t="str">
+        <f>ods_colecao_elegivel_retira_loj!B9</f>
+        <v>[multi].[ods_colecao_elegivel_retira_em_loja]</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f>ods_colecao_elegivel_retira_loj!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f>ods_colecao_elegivel_retira_loj!B10</f>
+        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\ods_colecao_elegiveis.dtsx</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="19" t="str">
+        <f>stg_colecao_cds_elegiveis!B9</f>
+        <v>[multi].[stg_colecao_cds_elegiveis]</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f>stg_colecao_cds_elegiveis!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f>stg_colecao_cds_elegiveis!B10</f>
+        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\stg_colecao_elegiveis.dtsx</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="19" t="str">
+        <f>stg_colecao_demais_cds_rj!B9</f>
+        <v>[multi].[stg_colecao_demais_cds_rj]</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f>stg_colecao_demais_cds_rj!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f>stg_colecao_demais_cds_rj!B10</f>
+        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\stg_colecao_elegiveis.dtsx</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="19" t="str">
+        <f>stg_colecao_demais_cds_sp!B9</f>
+        <v>[multi].[stg_colecao_demais_cds_sp]</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f>stg_colecao_demais_cds_sp!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f>stg_colecao_demais_cds_sp!B10</f>
+        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\stg_colecao_elegiveis.dtsx</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="19" t="str">
+        <f>stg_colecao_elegiveis!B9</f>
+        <v>[multi].[stg_colecao_elegiveis]</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>stg_colecao_elegiveis!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f>stg_colecao_elegiveis!B10</f>
+        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\stg_colecao_elegiveis.dtsx</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:E8">
+    <sortCondition ref="B3:B8"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B5" location="stg_colecao_cds_elegiveis!A1" display="stg_colecao_cds_elegiveis!A1"/>
+    <hyperlink ref="B7" location="stg_colecao_demais_cds_sp!A1" display="stg_colecao_demais_cds_sp!A1"/>
+    <hyperlink ref="B6" location="stg_colecao_demais_cds_rj!A1" display="stg_colecao_demais_cds_rj!A1"/>
+    <hyperlink ref="B8" location="stg_colecao_elegiveis!A1" display="stg_colecao_elegiveis!A1"/>
+    <hyperlink ref="B3" location="ods_colecao_elegivel_log_peg!A1" display="ods_colecao_elegivel_log_peg!A1"/>
+    <hyperlink ref="B4" location="ods_colecao_elegivel_retira_loj!A1" display="ods_colecao_elegivel_retira_loj!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B35"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1462,7 +2340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1515,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1618,7 +2496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1671,7 +2549,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1774,16 +2652,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2046,425 +2922,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="B2:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="19" t="str">
-        <f>stg_colecao_cds_elegiveis!B9</f>
-        <v>[multi].[stg_colecao_cds_elegiveis]</v>
-      </c>
-      <c r="C3" s="17" t="str">
-        <f>stg_colecao_cds_elegiveis!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D3" s="14" t="str">
-        <f>stg_colecao_cds_elegiveis!B10</f>
-        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\stg_colecao_elegiveis.dtsx</v>
-      </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="19" t="str">
-        <f>stg_colecao_demais_cds_sp!B9</f>
-        <v>[multi].[stg_colecao_demais_cds_sp]</v>
-      </c>
-      <c r="C4" s="17" t="str">
-        <f>stg_colecao_demais_cds_sp!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D4" s="14" t="str">
-        <f>stg_colecao_demais_cds_sp!B10</f>
-        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\stg_colecao_elegiveis.dtsx</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="19" t="str">
-        <f>stg_colecao_demais_cds_rj!B9</f>
-        <v>[multi].[stg_colecao_demais_cds_rj]</v>
-      </c>
-      <c r="C5" s="17" t="str">
-        <f>stg_colecao_demais_cds_rj!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D5" s="14" t="str">
-        <f>stg_colecao_demais_cds_rj!B10</f>
-        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\stg_colecao_elegiveis.dtsx</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="19" t="str">
-        <f>stg_colecao_elegiveis!B9</f>
-        <v>[multi].[stg_colecao_elegiveis]</v>
-      </c>
-      <c r="C6" s="17" t="str">
-        <f>stg_colecao_elegiveis!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D6" s="14" t="str">
-        <f>stg_colecao_elegiveis!B10</f>
-        <v>N:\Migracao\Colecao Elegiveis LogPeg e Retira em Loja_LN\stg_colecao_elegiveis.dtsx</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="19"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-  </sheetData>
-  <sortState ref="B3:E26">
-    <sortCondition ref="B3"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B3" location="stg_colecao_cds_elegiveis!A1" display="stg_colecao_cds_elegiveis!A1"/>
-    <hyperlink ref="B4" location="stg_colecao_demais_cds_sp!A1" display="stg_colecao_demais_cds_sp!A1"/>
-    <hyperlink ref="B5" location="stg_colecao_demais_cds_rj!A1" display="stg_colecao_demais_cds_rj!A1"/>
-    <hyperlink ref="B6" location="stg_colecao_elegiveis!A1" display="stg_colecao_elegiveis!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:E42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="E42" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>